--- a/VX1.xlsx
+++ b/VX1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\AllThingsPython\1.DD_GLO\modbus-sim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\AllThingsPython\modbus-net\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22642F2F-6484-4FE8-9F6C-16594029C167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A29AC2-D4E3-44F1-A346-94E22F103267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{FF54B6BA-5851-451C-92B8-85953EE59363}"/>
   </bookViews>
@@ -1781,8 +1781,8 @@
   </sheetPr>
   <dimension ref="A1:R167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E169" sqref="E169"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E152" sqref="E152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -8103,6 +8103,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000FC42AA2F53A6F49B7435B77622C8083" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="07b97dfcc5495692319e994f21b66c19">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a27032a5-8c74-49d9-bbcd-70a1fbc25f48" xmlns:ns4="eb938c54-a598-4c9b-bca5-315fb3a3976e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0385417d45c4c8295a90d4359b5f7e6f" ns3:_="" ns4:_="">
     <xsd:import namespace="a27032a5-8c74-49d9-bbcd-70a1fbc25f48"/>
@@ -8325,22 +8340,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEAB2BD5-B9F2-47F1-81E8-42FEF0E1A3AA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="a27032a5-8c74-49d9-bbcd-70a1fbc25f48"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="eb938c54-a598-4c9b-bca5-315fb3a3976e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F30F4D-0EFD-4922-B768-C360560068D7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB696C1C-B5EF-4C22-B326-D4DDCB54B221}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8359,31 +8384,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F30F4D-0EFD-4922-B768-C360560068D7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEAB2BD5-B9F2-47F1-81E8-42FEF0E1A3AA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="a27032a5-8c74-49d9-bbcd-70a1fbc25f48"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="eb938c54-a598-4c9b-bca5-315fb3a3976e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{8bb759f6-5337-4dc5-b19b-e74b6da11f8f}" enabled="1" method="Privileged" siteId="{41ff26dc-250f-4b13-8981-739be8610c21}" removed="0"/>
